--- a/iselUssSyncV2/OutputWSLorientation/20220524_1114_D50L474W30Q12.5U0.30H52.8G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1114_D50L474W30Q12.5U0.30H52.8G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.56750491533100111</v>
+        <v>0.32447002311752438</v>
       </c>
       <c r="P2" s="0">
         <v>176.46985666666666</v>
@@ -356,10 +356,10 @@
         <v>1.7311692938999999</v>
       </c>
       <c r="R2" s="0">
-        <v>1.6306419135440358</v>
+        <v>2.8520271062014464</v>
       </c>
       <c r="S2" s="0">
-        <v>0.3050148283795604</v>
+        <v>1.3014961877141107</v>
       </c>
       <c r="T2" s="0">
         <v>0.029441885000322687</v>
@@ -383,16 +383,16 @@
         <v>140000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.0616489613820106</v>
+        <v>0.60699608714648823</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.6756889594421063</v>
+        <v>1.3301378138806135</v>
       </c>
       <c r="AC2" s="0">
-        <v>6.8060296968783449</v>
+        <v>3.4030148484391725</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.1239623613904213</v>
+        <v>1.5619811806952106</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>12.481718656320451</v>
+        <v>4.7331526623197862</v>
       </c>
     </row>
   </sheetData>
